--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T12:02:40-03:00</t>
+    <t>2023-12-14T17:06:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T17:06:19-03:00</t>
+    <t>2023-12-15T10:15:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T10:15:00-03:00</t>
+    <t>2023-12-15T17:40:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:40:51-03:00</t>
+    <t>2023-12-18T10:08:36-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T10:08:36-03:00</t>
+    <t>2023-12-18T16:30:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T16:30:26-03:00</t>
+    <t>2023-12-19T10:25:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T10:25:02-03:00</t>
+    <t>2023-12-20T18:19:43-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T18:19:43-03:00</t>
+    <t>2023-12-21T12:24:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T12:24:32-03:00</t>
+    <t>2023-12-22T10:30:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T10:30:34-03:00</t>
+    <t>2023-12-22T16:42:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T16:42:14-03:00</t>
+    <t>2024-01-04T13:08:16-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:08:16-03:00</t>
+    <t>2024-01-04T15:48:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T15:48:10-03:00</t>
+    <t>2024-01-08T09:39:44-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T09:39:44-03:00</t>
+    <t>2024-01-18T12:40:46-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18T12:40:46-03:00</t>
+    <t>2024-01-18T17:12:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18T17:12:33-03:00</t>
+    <t>2024-01-19T17:28:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T17:28:51-03:00</t>
+    <t>2024-01-19T18:12:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T18:12:35-03:00</t>
+    <t>2024-01-21T18:35:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-21T18:35:12-03:00</t>
+    <t>2024-02-07T09:19:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:19:37-03:00</t>
+    <t>2024-02-07T18:11:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T18:11:02-03:00</t>
+    <t>2024-02-08T18:05:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T18:05:18-03:00</t>
+    <t>2024-02-09T16:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$104</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:41:20-03:00</t>
+    <t>2024-02-16T16:56:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -837,6 +840,153 @@
   </si>
   <si>
     <t>Composition.subject.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient</t>
+  </si>
+  <si>
+    <t>unidentifiedPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0}
+</t>
+  </si>
+  <si>
+    <t>Dados do Indivíduo Não Identificado</t>
+  </si>
+  <si>
+    <t>Informações demográficas básicas e justificativa dos indivíduos que não podem ser identificados por razões clínicas ou sociais, conforme legislação brasileira, com finalidade estatística.</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.url</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.value[x]</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear</t>
+  </si>
+  <si>
+    <t>birthYear</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.url</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.url</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.value[x]</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.url</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.url</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension:unidentifiedPatient.value[x]</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Composition.subject.reference</t>
@@ -1762,6 +1912,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1938,7 +2103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1947,9 +2112,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="73.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1957,7 +2122,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="170.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2114,7 +2279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2231,7 +2396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2348,7 +2513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2463,7 +2628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2580,7 +2745,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2697,7 +2862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2814,7 +2979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2931,7 +3096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -3048,7 +3213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3167,7 +3332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -3284,7 +3449,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3403,7 +3568,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>170</v>
       </c>
@@ -3522,7 +3687,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>183</v>
       </c>
@@ -3637,7 +3802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3754,7 +3919,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>194</v>
       </c>
@@ -3873,7 +4038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>202</v>
       </c>
@@ -3988,7 +4153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -4105,7 +4270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>204</v>
       </c>
@@ -4224,7 +4389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>211</v>
       </c>
@@ -4341,7 +4506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>217</v>
       </c>
@@ -4458,7 +4623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>223</v>
       </c>
@@ -4575,7 +4740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
@@ -4694,7 +4859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>237</v>
       </c>
@@ -4813,7 +4978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>244</v>
       </c>
@@ -4932,7 +5097,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>255</v>
       </c>
@@ -5051,7 +5216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>265</v>
       </c>
@@ -5166,7 +5331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
@@ -5175,7 +5340,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5197,14 +5362,12 @@
         <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5271,7 +5434,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5283,14 +5446,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5299,29 +5464,27 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5370,25 +5533,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5400,12 +5563,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5416,7 +5579,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5425,20 +5588,18 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5463,66 +5624,66 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5530,10 +5691,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5542,20 +5703,18 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5592,37 +5751,37 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5634,45 +5793,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5721,25 +5880,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5751,12 +5910,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5767,7 +5926,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5776,21 +5935,19 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5838,7 +5995,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5850,41 +6007,41 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5893,23 +6050,21 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>189</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5945,54 +6100,54 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6012,27 +6167,27 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6074,42 +6229,42 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6117,7 +6272,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -6132,13 +6287,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6189,7 +6344,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6201,13 +6356,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6219,26 +6374,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -6250,14 +6407,12 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6294,16 +6449,16 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>193</v>
@@ -6324,7 +6479,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6336,12 +6491,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6352,7 +6507,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6361,20 +6516,18 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6423,7 +6576,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6432,16 +6585,16 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6453,23 +6606,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6478,19 +6631,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6516,49 +6669,49 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6570,12 +6723,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6595,19 +6748,19 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6615,7 +6768,7 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>78</v>
@@ -6657,10 +6810,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>90</v>
@@ -6669,13 +6822,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6687,12 +6840,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6700,10 +6853,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6712,20 +6865,18 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6774,7 +6925,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6804,14 +6955,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6823,26 +6976,24 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6891,42 +7042,42 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6937,7 +7088,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6946,20 +7097,18 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6984,13 +7133,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7008,7 +7157,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7020,41 +7169,41 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7066,20 +7215,18 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7115,19 +7262,19 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>193</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7139,30 +7286,30 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7170,7 +7317,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -7185,22 +7332,24 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>78</v>
@@ -7242,10 +7391,10 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>90</v>
@@ -7260,7 +7409,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7272,23 +7421,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7300,17 +7449,15 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7359,25 +7506,25 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7389,54 +7536,52 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
@@ -7478,19 +7623,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7508,12 +7653,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7521,10 +7666,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7536,18 +7681,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7571,13 +7714,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7595,10 +7738,10 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7613,10 +7756,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7625,12 +7768,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7650,21 +7793,21 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7712,7 +7855,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7721,7 +7864,7 @@
         <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -7730,10 +7873,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7742,12 +7885,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7767,21 +7910,21 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7805,13 +7948,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7829,7 +7972,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7847,24 +7990,24 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7875,7 +8018,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7887,20 +8030,18 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7948,7 +8089,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7966,24 +8107,24 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7994,7 +8135,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8003,19 +8144,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8065,13 +8206,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8083,24 +8224,24 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8111,7 +8252,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8120,19 +8261,21 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8180,7 +8323,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8192,41 +8335,41 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8235,21 +8378,23 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>189</v>
+        <v>353</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8297,77 +8442,75 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8416,10 +8559,10 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8428,30 +8571,30 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8459,7 +8602,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
@@ -8474,17 +8617,15 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>185</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8509,13 +8650,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8533,10 +8674,10 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>90</v>
@@ -8545,41 +8686,41 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8591,15 +8732,17 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8636,54 +8779,54 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>193</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>167</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8706,20 +8849,18 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8767,16 +8908,16 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -8785,24 +8926,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>422</v>
+        <v>133</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8813,7 +8954,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8822,18 +8963,20 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8858,13 +9001,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8882,7 +9025,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8894,13 +9037,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8912,23 +9055,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8937,19 +9080,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>139</v>
+        <v>332</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8999,25 +9142,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -9029,48 +9172,46 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9118,19 +9259,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9148,12 +9289,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9161,10 +9302,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9176,16 +9317,16 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9211,13 +9352,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9235,13 +9376,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9253,24 +9394,24 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>180</v>
+        <v>382</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9281,7 +9422,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9293,15 +9434,17 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9326,13 +9469,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9350,7 +9493,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9368,24 +9511,24 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9396,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9405,19 +9548,23 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9465,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9483,24 +9630,24 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9508,7 +9655,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9523,13 +9670,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>185</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>447</v>
+        <v>186</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9580,28 +9727,28 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>187</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>449</v>
+        <v>167</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9610,23 +9757,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9638,15 +9785,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9695,19 +9844,19 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9725,16 +9874,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>135</v>
+        <v>404</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9747,24 +9896,26 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9812,7 +9963,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9981,7 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9842,47 +9993,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>145</v>
+        <v>411</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9907,13 +10056,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9931,28 +10080,28 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>133</v>
+        <v>414</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9961,23 +10110,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9989,19 +10138,17 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10050,7 +10197,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10068,10 +10215,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10080,12 +10227,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10096,7 +10243,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10108,19 +10255,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10145,13 +10290,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10169,7 +10314,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10187,24 +10332,24 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10224,20 +10369,22 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O71" t="s" s="2">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10286,13 +10433,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -10304,24 +10451,24 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10332,7 +10479,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10344,16 +10491,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10403,13 +10550,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10421,24 +10568,24 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10449,7 +10596,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10461,17 +10608,15 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>185</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10520,7 +10665,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>187</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10529,19 +10674,19 @@
         <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>481</v>
+        <v>167</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10550,23 +10695,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10578,20 +10723,18 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>137</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>189</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10615,13 +10758,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10639,77 +10782,77 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>482</v>
+        <v>193</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>489</v>
+        <v>167</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>493</v>
+        <v>139</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>494</v>
+        <v>145</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10734,13 +10877,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10758,28 +10901,28 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>490</v>
+        <v>407</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>497</v>
+        <v>133</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10788,12 +10931,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10804,7 +10947,7 @@
         <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10816,16 +10959,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10851,13 +10994,13 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10875,16 +11018,16 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>102</v>
@@ -10893,24 +11036,24 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10918,7 +11061,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>90</v>
@@ -10933,13 +11076,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>184</v>
+        <v>459</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10990,10 +11133,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>187</v>
+        <v>458</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>90</v>
@@ -11002,41 +11145,41 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>167</v>
+        <v>462</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11045,21 +11188,23 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>136</v>
+        <v>393</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>137</v>
+        <v>466</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>189</v>
+        <v>467</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11095,19 +11240,19 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>193</v>
+        <v>465</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11119,30 +11264,30 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11150,7 +11295,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
@@ -11162,20 +11307,18 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>184</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11224,7 +11367,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11233,16 +11376,16 @@
         <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11254,23 +11397,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11279,19 +11422,19 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11317,13 +11460,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11341,25 +11484,25 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11371,46 +11514,48 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11458,25 +11603,25 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>285</v>
+        <v>407</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11488,12 +11633,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11504,7 +11649,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11516,16 +11661,16 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11551,13 +11696,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11575,13 +11720,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11593,24 +11738,24 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11621,7 +11766,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11630,23 +11775,19 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11670,13 +11811,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>518</v>
+        <v>78</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11694,7 +11835,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11703,7 +11844,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -11712,24 +11853,24 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>519</v>
+        <v>358</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11740,7 +11881,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11749,20 +11890,18 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11811,7 +11950,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11820,7 +11959,7 @@
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>102</v>
@@ -11829,19 +11968,2383 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO84" t="s" s="2">
+      <c r="B93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO104">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI103">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:56:19-03:00</t>
+    <t>2024-02-27T15:34:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T15:34:29-03:00</t>
+    <t>2024-03-22T16:03:25-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:03:25-03:00</t>
+    <t>2024-10-15T16:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1116,7 +1116,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>

--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$104</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -57,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T16:51:50-03:00</t>
+    <t>2025-01-22T17:38:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -840,153 +837,6 @@
   </si>
   <si>
     <t>Composition.subject.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient</t>
-  </si>
-  <si>
-    <t>unidentifiedPatient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0}
-</t>
-  </si>
-  <si>
-    <t>Dados do Indivíduo Não Identificado</t>
-  </si>
-  <si>
-    <t>Informações demográficas básicas e justificativa dos indivíduos que não podem ser identificados por razões clínicas ou sociais, conforme legislação brasileira, com finalidade estatística.</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.extension</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:gender</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.url</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:gender.value[x]</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear</t>
-  </si>
-  <si>
-    <t>birthYear</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.url</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:birthYear.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:reason</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.url</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.extension:reason.value[x]</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.url</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.url</t>
-  </si>
-  <si>
-    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension:unidentifiedPatient.value[x]</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Composition.subject.reference</t>
@@ -1912,21 +1762,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1994,98 +1829,100 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2103,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2112,17 +1949,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="161.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2131,27 +1968,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.32421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="68.76171875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2279,12 +2116,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2310,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>82</v>
@@ -2366,7 +2203,7 @@
         <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>79</v>
@@ -2396,7 +2233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2513,7 +2350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2628,7 +2465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2745,7 +2582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2862,7 +2699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2979,7 +2816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -3096,7 +2933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -3213,7 +3050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3332,7 +3169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -3449,7 +3286,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3568,7 +3405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>170</v>
       </c>
@@ -3687,7 +3524,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>183</v>
       </c>
@@ -3802,7 +3639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3919,7 +3756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>194</v>
       </c>
@@ -4038,7 +3875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>202</v>
       </c>
@@ -4153,7 +3990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -4270,7 +4107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>204</v>
       </c>
@@ -4389,7 +4226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>211</v>
       </c>
@@ -4506,7 +4343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>217</v>
       </c>
@@ -4623,7 +4460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>223</v>
       </c>
@@ -4740,7 +4577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
@@ -4859,7 +4696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>237</v>
       </c>
@@ -4978,7 +4815,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>244</v>
       </c>
@@ -5097,7 +4934,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>255</v>
       </c>
@@ -5216,7 +5053,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>265</v>
       </c>
@@ -5331,7 +5168,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>266</v>
       </c>
@@ -5340,7 +5177,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5362,12 +5199,14 @@
         <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5434,7 +5273,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5446,16 +5285,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5464,27 +5301,29 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5533,25 +5372,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5563,12 +5402,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5579,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5588,18 +5427,20 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5624,13 +5465,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5648,7 +5489,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5660,13 +5501,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5678,12 +5519,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5691,10 +5532,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5703,18 +5544,20 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5751,37 +5594,37 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5793,45 +5636,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5880,25 +5723,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5910,12 +5753,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5926,7 +5769,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5935,19 +5778,21 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5995,7 +5840,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6007,41 +5852,41 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -6050,21 +5895,23 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -6100,54 +5947,54 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6167,27 +6014,27 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6229,42 +6076,42 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6272,7 +6119,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -6287,13 +6134,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6344,7 +6191,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6356,13 +6203,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6374,28 +6221,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -6407,12 +6252,14 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6449,16 +6296,16 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>193</v>
@@ -6479,7 +6326,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6491,12 +6338,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6507,7 +6354,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6516,18 +6363,20 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6576,7 +6425,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6585,16 +6434,16 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6606,23 +6455,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6631,19 +6480,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6669,49 +6518,49 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6723,12 +6572,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6748,19 +6597,19 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6768,7 +6617,7 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>78</v>
@@ -6810,10 +6659,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>90</v>
@@ -6822,13 +6671,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6840,12 +6689,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6853,10 +6702,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6865,18 +6714,20 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6925,7 +6776,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6955,16 +6806,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6976,24 +6825,26 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7042,42 +6893,42 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7088,7 +6939,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7097,18 +6948,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>185</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7133,13 +6986,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7157,7 +7010,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7169,41 +7022,41 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7215,18 +7068,20 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7262,19 +7117,19 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7286,30 +7141,30 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7317,7 +7172,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -7332,24 +7187,22 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>78</v>
@@ -7391,10 +7244,10 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>90</v>
@@ -7409,7 +7262,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7421,23 +7274,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7449,15 +7302,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7506,25 +7361,25 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7536,52 +7391,54 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
@@ -7623,19 +7480,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7653,12 +7510,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7666,10 +7523,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7681,16 +7538,18 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7714,13 +7573,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7738,10 +7597,10 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7756,10 +7615,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7768,12 +7627,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7793,21 +7652,21 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7855,7 +7714,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7864,7 +7723,7 @@
         <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -7873,10 +7732,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>133</v>
+        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7885,12 +7744,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7910,21 +7769,21 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7948,13 +7807,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7972,7 +7831,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7990,24 +7849,24 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8018,7 +7877,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8030,18 +7889,20 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8089,7 +7950,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8107,24 +7968,24 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8135,7 +7996,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8144,19 +8005,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8206,13 +8067,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8224,24 +8085,24 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8252,7 +8113,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8261,21 +8122,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
+        <v>186</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8323,7 +8182,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8335,41 +8194,41 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8378,23 +8237,21 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>189</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8442,75 +8299,77 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>357</v>
+        <v>167</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8559,10 +8418,10 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8571,30 +8430,30 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8602,7 +8461,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
@@ -8617,15 +8476,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>185</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8650,13 +8511,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8674,10 +8535,10 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>187</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>90</v>
@@ -8686,41 +8547,41 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8732,17 +8593,15 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>137</v>
+        <v>412</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8779,54 +8638,54 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>193</v>
+        <v>410</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>167</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8849,18 +8708,20 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>316</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8908,16 +8769,16 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -8926,24 +8787,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>133</v>
+        <v>422</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8954,7 +8815,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8963,20 +8824,18 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9001,13 +8860,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9025,7 +8884,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9037,13 +8896,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -9055,23 +8914,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9080,19 +8939,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>332</v>
+        <v>139</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9142,25 +9001,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -9172,46 +9031,48 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9259,19 +9120,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9289,12 +9150,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9302,10 +9163,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9317,16 +9178,16 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9352,13 +9213,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9376,13 +9237,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9394,24 +9255,24 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>381</v>
+        <v>180</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>382</v>
+        <v>180</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9422,7 +9283,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9434,17 +9295,15 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9469,13 +9328,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9493,7 +9352,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9511,24 +9370,24 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9539,7 +9398,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9548,23 +9407,19 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9612,7 +9467,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9630,24 +9485,24 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9655,7 +9510,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9670,13 +9525,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
+        <v>447</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9727,28 +9582,28 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>167</v>
+        <v>449</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9757,23 +9612,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9785,17 +9640,15 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9844,19 +9697,19 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9874,16 +9727,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9896,26 +9749,24 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>405</v>
+        <v>137</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O67" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9963,7 +9814,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9981,7 +9832,7 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9993,45 +9844,47 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O68" t="s" s="2">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10056,13 +9909,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10080,28 +9933,28 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10110,23 +9963,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10138,17 +9991,19 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10197,7 +10052,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10215,10 +10070,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10227,12 +10082,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10243,7 +10098,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10255,17 +10110,19 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10290,13 +10147,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10314,7 +10171,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10332,24 +10189,24 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>427</v>
+        <v>179</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>428</v>
+        <v>180</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10369,22 +10226,20 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>435</v>
+        <v>317</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10433,13 +10288,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -10451,24 +10306,24 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10479,7 +10334,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10491,16 +10346,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10550,13 +10405,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10568,24 +10423,24 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10596,7 +10451,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10608,15 +10463,17 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>185</v>
+        <v>477</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10665,7 +10522,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>187</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10674,19 +10531,19 @@
         <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>167</v>
+        <v>481</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10695,23 +10552,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10723,18 +10580,20 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>137</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>189</v>
+        <v>484</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10758,13 +10617,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10782,77 +10641,77 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM74" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>139</v>
+        <v>493</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>145</v>
+        <v>494</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10877,13 +10736,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10901,28 +10760,28 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10931,12 +10790,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10947,7 +10806,7 @@
         <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10959,16 +10818,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10994,13 +10853,13 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -11018,16 +10877,16 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>102</v>
@@ -11036,24 +10895,24 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11061,7 +10920,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>90</v>
@@ -11076,13 +10935,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>459</v>
+        <v>184</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>461</v>
+        <v>186</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11133,10 +10992,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>458</v>
+        <v>187</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>90</v>
@@ -11145,41 +11004,41 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>462</v>
+        <v>167</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11188,23 +11047,21 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>393</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>466</v>
+        <v>137</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>467</v>
+        <v>189</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11240,19 +11097,19 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11264,30 +11121,30 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>470</v>
+        <v>167</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11295,7 +11152,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
@@ -11307,18 +11164,20 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>184</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11367,7 +11226,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11376,16 +11235,16 @@
         <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11397,23 +11256,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11422,19 +11281,19 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11460,13 +11319,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11484,25 +11343,25 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11514,48 +11373,46 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>405</v>
+        <v>282</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11603,25 +11460,25 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>407</v>
+        <v>285</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11633,12 +11490,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11649,7 +11506,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11661,16 +11518,16 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>477</v>
+        <v>288</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>478</v>
+        <v>289</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>479</v>
+        <v>290</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11696,13 +11553,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11720,13 +11577,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11738,24 +11595,24 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11766,7 +11623,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11775,19 +11632,23 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>484</v>
+        <v>171</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11811,13 +11672,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11835,7 +11696,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11844,7 +11705,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>102</v>
@@ -11853,24 +11714,24 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>358</v>
+        <v>519</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11881,7 +11742,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11890,18 +11751,20 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11950,7 +11813,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11959,7 +11822,7 @@
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>102</v>
@@ -11968,2383 +11831,19 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>167</v>
+        <v>524</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO104">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
+++ b/docs/StructureDefinition-BRRegistroPrescricaoMedicamento.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T17:38:12-03:00</t>
+    <t>2025-08-05T10:09:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1949,17 +1949,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.61328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.61328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="161.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="154.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1968,27 +1968,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.32421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.74609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.8984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="68.76171875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.3515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="65.5703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
